--- a/Running projects/Sana Safinaz Dolmen Mall Lahore/PO/001- Purchase order- for IIL pipe.xlsx
+++ b/Running projects/Sana Safinaz Dolmen Mall Lahore/PO/001- Purchase order- for IIL pipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Sana Safinaz Dolmen Mall Lahore\PO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAA09F1-B01D-4C03-95BE-24A49E0E1D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4742CE30-8422-4A87-A13C-207B35308632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>S No.</t>
   </si>
@@ -129,6 +129,15 @@
   </si>
   <si>
     <t>Supply of ERW Black Pipe Plain End for the project (Sana Safinaz   Dolmen Mall Lahore)</t>
+  </si>
+  <si>
+    <t>ERW Black pipe Plain End  65mm</t>
+  </si>
+  <si>
+    <t>ERW Black pipe Plain End  100mm</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -757,16 +766,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>134281</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>191617</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>134468</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -789,8 +798,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8591550" y="647700"/>
-          <a:ext cx="6668431" cy="8002117"/>
+          <a:off x="8391525" y="609600"/>
+          <a:ext cx="9525000" cy="9649943"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1067,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A10:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1315,7 +1324,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C32" s="6">
         <v>14</v>
@@ -1373,7 +1382,7 @@
         <v>7</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C34" s="6">
         <v>11</v>
@@ -1400,8 +1409,8 @@
     <row r="35" spans="1:9" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="31">
-        <v>258</v>
+      <c r="C35" s="31" t="s">
+        <v>31</v>
       </c>
       <c r="D35" s="31"/>
       <c r="E35" s="31"/>
